--- a/data/trans_orig/P14C15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F6B1C1-02A0-4026-BFA6-316C2D683D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{933BC173-5680-4061-B696-4FE1D10EDF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39156210-3858-449B-87E5-DD428ACC6520}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78AC03CB-8EFE-40B4-9895-C6C7E827FD34}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>47,95%</t>
+    <t>39,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>45,01%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>55,61%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,23%</t>
+    <t>55,23%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,25 +134,25 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>46,55%</t>
+    <t>37,99%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,49 +164,49 @@
     <t>95,84%</t>
   </si>
   <si>
-    <t>82,07%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>64,12%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>17,93%</t>
+    <t>21,21%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>0%</t>
@@ -218,19 +218,19 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -239,7 +239,7 @@
     <t>82,4%</t>
   </si>
   <si>
-    <t>28,16%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -248,7 +248,7 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>59,84%</t>
+    <t>59,37%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -260,88 +260,88 @@
     <t>17,6%</t>
   </si>
   <si>
-    <t>71,84%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>40,16%</t>
+    <t>40,63%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DA6AF-88F6-4BD4-9289-E4DAA82245CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558031C2-B66E-47EC-AA53-2341AAA0AD5A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933BC173-5680-4061-B696-4FE1D10EDF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04201BB-B7BB-4A84-A023-FA025024F3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78AC03CB-8EFE-40B4-9895-C6C7E827FD34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2558561B-B96C-4DD9-95CE-3B14EF8041EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
-    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>39,72%</t>
+    <t>47,12%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>45,01%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>55,61%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,23%</t>
+    <t>46,16%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,25 +134,25 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>37,99%</t>
+    <t>47,87%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,49 +164,49 @@
     <t>95,84%</t>
   </si>
   <si>
-    <t>78,79%</t>
+    <t>72,34%</t>
   </si>
   <si>
     <t>64,12%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>21,21%</t>
+    <t>27,66%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -218,19 +218,19 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -239,7 +239,7 @@
     <t>82,4%</t>
   </si>
   <si>
-    <t>28,21%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -248,7 +248,7 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>59,37%</t>
+    <t>55,21%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -260,88 +260,88 @@
     <t>17,6%</t>
   </si>
   <si>
-    <t>71,79%</t>
+    <t>81,67%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>40,63%</t>
+    <t>44,79%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558031C2-B66E-47EC-AA53-2341AAA0AD5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC2C67-F080-43B6-A052-3F6C86E86FE3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
